--- a/非受控文档/6_公用/任务评审/PRD2018-G03-任务评审表（20181120）.xlsx
+++ b/非受控文档/6_公用/任务评审/PRD2018-G03-任务评审表（20181120）.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB00299-96D1-4322-A763-D795D66841DF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,11 +159,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,90 +411,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -503,13 +420,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -531,7 +532,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -573,7 +574,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -605,9 +606,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -639,6 +658,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -814,210 +851,210 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="11" max="11" width="19.44140625" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" customWidth="1"/>
-    <col min="18" max="18" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="17.375" customWidth="1"/>
+    <col min="16" max="16" width="12.625" customWidth="1"/>
+    <col min="18" max="18" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19">
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="11"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="2:19">
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="14"/>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="27"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="2:19">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="16"/>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="15" t="s">
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="25"/>
+      <c r="J4" s="15"/>
       <c r="K4" s="16"/>
-      <c r="L4" s="19">
+      <c r="L4" s="31">
         <v>43424</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="30" t="s">
+      <c r="M4" s="32"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="P4" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="33" t="s">
+      <c r="R4" s="37" t="s">
         <v>26</v>
       </c>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="2:19">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="17"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="34"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="38"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="2:19">
-      <c r="B6" s="15" t="s">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="9">
+      <c r="E6" s="39">
         <v>43417</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="15" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="14" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="16"/>
-      <c r="L6" s="19">
+      <c r="L6" s="31">
         <v>43424</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="21"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="33"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="2:19">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B7" s="17"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="24"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="36"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="2:19">
-      <c r="B8" s="27" t="s">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B8" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="16"/>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="35" t="s">
+      <c r="J8" s="21"/>
+      <c r="K8" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="36"/>
-      <c r="M8" s="27" t="s">
+      <c r="L8" s="21"/>
+      <c r="M8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="25" t="s">
+      <c r="N8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
       <c r="R8" s="16"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="2:19" ht="39" customHeight="1">
-      <c r="B9" s="28"/>
+    <row r="9" spans="2:19" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="41"/>
       <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1030,28 +1067,28 @@
       <c r="L9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="18"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="19"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="2:19" ht="70.05" customHeight="1">
+    <row r="10" spans="2:19" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="37" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
         <v>24</v>
@@ -1063,29 +1100,29 @@
       <c r="M10" s="2">
         <v>9.1</v>
       </c>
-      <c r="N10" s="37" t="s">
+      <c r="N10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="39"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="11"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="2:19" ht="70.05" customHeight="1">
+    <row r="11" spans="2:19" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="7">
         <v>2</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="37" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
         <v>23</v>
@@ -1097,29 +1134,29 @@
       <c r="M11" s="2">
         <v>9</v>
       </c>
-      <c r="N11" s="37" t="s">
+      <c r="N11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="39"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="11"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="2:19" ht="70.05" customHeight="1">
+    <row r="12" spans="2:19" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7">
         <v>3</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="37" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
         <v>23</v>
@@ -1129,31 +1166,31 @@
         <v>23</v>
       </c>
       <c r="M12" s="2">
-        <v>8.9</v>
-      </c>
-      <c r="N12" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="39"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="11"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="2:19" ht="70.05" customHeight="1">
+    <row r="13" spans="2:19" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="8">
         <v>4</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="37" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5" t="s">
         <v>23</v>
@@ -1163,31 +1200,31 @@
         <v>23</v>
       </c>
       <c r="M13" s="5">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="N13" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="39"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="11"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="2:19" ht="70.05" customHeight="1">
+    <row r="14" spans="2:19" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="7">
         <v>5</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="37" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
         <v>23</v>
@@ -1199,16 +1236,16 @@
       <c r="M14" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="N14" s="37" t="s">
+      <c r="N14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="39"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="11"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="2:19">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1228,7 +1265,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="2:19">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1248,7 +1285,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="2:19">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1268,7 +1305,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="2:19">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1288,7 +1325,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="2:19">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1308,7 +1345,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="2:19">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1328,7 +1365,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="2:19">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1348,7 +1385,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="2:19">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1368,7 +1405,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="2:19">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1388,7 +1425,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="2:19">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1408,7 +1445,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="2:19">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1428,7 +1465,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="2:19">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1448,7 +1485,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="2:19">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1468,7 +1505,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="2:19">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1490,19 +1527,12 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:R9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="C8:D9"/>
     <mergeCell ref="E8:H9"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="N12:R12"/>
@@ -1519,12 +1549,19 @@
     <mergeCell ref="E6:I7"/>
     <mergeCell ref="J6:K7"/>
     <mergeCell ref="L6:R7"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:R9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E10:H10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/非受控文档/6_公用/任务评审/PRD2018-G03-任务评审表（20181120）.xlsx
+++ b/非受控文档/6_公用/任务评审/PRD2018-G03-任务评审表（20181120）.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB00299-96D1-4322-A763-D795D66841DF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0CB436-F3E2-47D6-AF36-9A1880974647}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,6 +411,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -420,97 +453,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -868,193 +868,193 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="27"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="28"/>
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="30" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="14" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="31">
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="32">
         <v>43424</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="28" t="s">
+      <c r="M4" s="33"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="37" t="s">
+      <c r="P4" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="28" t="s">
+      <c r="Q4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="37" t="s">
+      <c r="R4" s="38" t="s">
         <v>26</v>
       </c>
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="38"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="39"/>
       <c r="S5" s="4"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="39">
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="40">
         <v>43417</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="14" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="31">
+      <c r="K6" s="11"/>
+      <c r="L6" s="32">
         <v>43424</v>
       </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="34"/>
       <c r="S6" s="4"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="36"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="37"/>
       <c r="S7" s="4"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="20" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="42" t="s">
+      <c r="J8" s="18"/>
+      <c r="K8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="40" t="s">
+      <c r="L8" s="18"/>
+      <c r="M8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="16"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="11"/>
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="2:19" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="41"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1067,28 +1067,28 @@
       <c r="L9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="41"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="19"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="14"/>
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="2:19" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="42"/>
+      <c r="E10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
         <v>24</v>
@@ -1100,29 +1100,29 @@
       <c r="M10" s="2">
         <v>9.1</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="11"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="22"/>
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="2:19" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="7">
         <v>2</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
         <v>23</v>
@@ -1134,29 +1134,29 @@
       <c r="M11" s="2">
         <v>9</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="11"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="22"/>
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="2:19" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7">
         <v>3</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="42"/>
+      <c r="E12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
         <v>23</v>
@@ -1166,31 +1166,31 @@
         <v>23</v>
       </c>
       <c r="M12" s="2">
-        <v>9</v>
-      </c>
-      <c r="N12" s="9" t="s">
+        <v>8.9</v>
+      </c>
+      <c r="N12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="11"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="22"/>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="2:19" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="8">
         <v>4</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="42"/>
+      <c r="E13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5" t="s">
         <v>23</v>
@@ -1200,31 +1200,31 @@
         <v>23</v>
       </c>
       <c r="M13" s="5">
-        <v>9</v>
-      </c>
-      <c r="N13" s="9" t="s">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="11"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="22"/>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="2:19" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="7">
         <v>5</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="42"/>
+      <c r="E14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
         <v>23</v>
@@ -1236,13 +1236,13 @@
       <c r="M14" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="11"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="22"/>
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.15">
@@ -1527,14 +1527,19 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:R9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:H9"/>
-    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E10:H10"/>
     <mergeCell ref="N12:R12"/>
     <mergeCell ref="N13:R13"/>
     <mergeCell ref="B2:R3"/>
@@ -1549,19 +1554,14 @@
     <mergeCell ref="E6:I7"/>
     <mergeCell ref="J6:K7"/>
     <mergeCell ref="L6:R7"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:R9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:H9"/>
+    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
